--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value372.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value372.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.086123333054808</v>
+        <v>1.048278093338013</v>
       </c>
       <c r="B1">
-        <v>2.26922495867265</v>
+        <v>3.456063985824585</v>
       </c>
       <c r="C1">
-        <v>2.697231294527451</v>
+        <v>3.414569139480591</v>
       </c>
       <c r="D1">
-        <v>2.170831833974558</v>
+        <v>2.017139434814453</v>
       </c>
       <c r="E1">
-        <v>0.8467383654339239</v>
+        <v>1.162735819816589</v>
       </c>
     </row>
   </sheetData>
